--- a/src/main/resources/VL_MPR.xlsx
+++ b/src/main/resources/VL_MPR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20403"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neco it\sochbackend\JavaServices-Lab\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neco it\sochbackend\DashBoard\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{129CE90F-476A-45E1-80DE-2E5A0148C6C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6E06DC-C54D-433F-BABA-7EE106EDDB85}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{9B197496-F184-1449-BF0A-6B898F419299}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>Suppressed (&lt;1000 copies)</t>
   </si>
   <si>
-    <t>Suppressed (&gt;1000 copies)</t>
-  </si>
-  <si>
     <t>Adult</t>
   </si>
   <si>
@@ -91,6 +88,9 @@
   </si>
   <si>
     <t>VL Lab District Name</t>
+  </si>
+  <si>
+    <t>UnSuppressed (&gt;1000 copies)</t>
   </si>
 </sst>
 </file>
@@ -250,14 +250,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,8 +269,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,232 +588,224 @@
   </sheetPr>
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="AF1" s="5"/>
-      <c r="AG1" s="5"/>
-      <c r="AH1" s="5"/>
-      <c r="AI1" s="5"/>
-      <c r="AJ1" s="6"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="9"/>
     </row>
     <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="4" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="4" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="AD2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="5"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="4" t="s">
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="V2" s="6"/>
-      <c r="W2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
       <c r="L3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="O3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="U3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Y3" s="2" t="s">
+      <c r="Z3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="AA3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AB3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC3" s="11"/>
+      <c r="AC3" s="6"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AF3" s="2" t="s">
+      <c r="AG3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="AG3" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="AH3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="AI3" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="AJ3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="K1:K3"/>
-    <mergeCell ref="L1:Q1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
     <mergeCell ref="AE2:AG2"/>
     <mergeCell ref="AH2:AI2"/>
     <mergeCell ref="B1:B3"/>
@@ -830,6 +822,14 @@
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="H1:H3"/>
     <mergeCell ref="I1:I3"/>
+    <mergeCell ref="J1:J3"/>
+    <mergeCell ref="K1:K3"/>
+    <mergeCell ref="L1:Q1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
